--- a/Project Admin/Aroma Project Admin.xlsx
+++ b/Project Admin/Aroma Project Admin.xlsx
@@ -4,32 +4,35 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sumary" sheetId="1" r:id="rId1"/>
     <sheet name="Task List" sheetId="2" r:id="rId2"/>
-    <sheet name="Agile" sheetId="16" r:id="rId3"/>
-    <sheet name="Sub Task-Queries" sheetId="15" r:id="rId4"/>
-    <sheet name="Sub Task-SMS" sheetId="14" r:id="rId5"/>
-    <sheet name="Sub Task-Subsciption" sheetId="11" r:id="rId6"/>
-    <sheet name="Sub Task-Admin" sheetId="3" r:id="rId7"/>
-    <sheet name="Sub Task-Main Project Design" sheetId="4" r:id="rId8"/>
-    <sheet name="Sub Task-Main Database" sheetId="5" r:id="rId9"/>
-    <sheet name="Sub Task-Template" sheetId="6" r:id="rId10"/>
-    <sheet name="Sub Task-Debit Order" sheetId="13" r:id="rId11"/>
-    <sheet name="Sub Task-Financials" sheetId="12" r:id="rId12"/>
-    <sheet name="Sub Task-Products" sheetId="10" r:id="rId13"/>
-    <sheet name="Sub Task-Client" sheetId="7" r:id="rId14"/>
-    <sheet name="Sub Task-Client Type" sheetId="8" r:id="rId15"/>
-    <sheet name="Sub Task-Security" sheetId="9" r:id="rId16"/>
+    <sheet name="Sub Task-Shipping" sheetId="19" r:id="rId3"/>
+    <sheet name="Sub Task TeleSales" sheetId="18" r:id="rId4"/>
+    <sheet name="Sub Implementation Integration" sheetId="17" r:id="rId5"/>
+    <sheet name="Agile" sheetId="16" r:id="rId6"/>
+    <sheet name="Sub Task-Queries" sheetId="15" r:id="rId7"/>
+    <sheet name="Sub Task-SMS" sheetId="14" r:id="rId8"/>
+    <sheet name="Sub Task-Subsciption" sheetId="11" r:id="rId9"/>
+    <sheet name="Sub Task-Admin" sheetId="3" r:id="rId10"/>
+    <sheet name="Sub Task-Main Project Design" sheetId="4" r:id="rId11"/>
+    <sheet name="Sub Task-Main Database" sheetId="5" r:id="rId12"/>
+    <sheet name="Sub Task-Template" sheetId="6" r:id="rId13"/>
+    <sheet name="Sub Task-Debit Order" sheetId="13" r:id="rId14"/>
+    <sheet name="Sub Task-Financials" sheetId="12" r:id="rId15"/>
+    <sheet name="Sub Task-Products" sheetId="10" r:id="rId16"/>
+    <sheet name="Sub Task-Client" sheetId="7" r:id="rId17"/>
+    <sheet name="Sub Task-Client Type" sheetId="8" r:id="rId18"/>
+    <sheet name="Sub Task-Security" sheetId="9" r:id="rId19"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="184">
   <si>
     <t>Developer</t>
   </si>
@@ -88,9 +91,6 @@
     <t>Reports        </t>
   </si>
   <si>
-    <t>Business Processes        </t>
-  </si>
-  <si>
     <t>System        </t>
   </si>
   <si>
@@ -434,13 +434,180 @@
   </si>
   <si>
     <t>Refresh on page prevent duplicate product selection</t>
+  </si>
+  <si>
+    <t>Implementation And Integration</t>
+  </si>
+  <si>
+    <t>Sub Implementation Integration</t>
+  </si>
+  <si>
+    <t>Roll out new version 18/09/2015</t>
+  </si>
+  <si>
+    <t>Data merge on new version 18/09/2015</t>
+  </si>
+  <si>
+    <t>Op klient 10002, wanneer ek na ‘Go to Banking” gaan, gee hy nog steeds die error screen. Ek het nie ‘n probleem met enige van die ander nie. Ek kan dus nie die bank besonderhede update nie.</t>
+  </si>
+  <si>
+    <t>Dan moet ons ook die adresse lyne 5 lyne maak (saam met poskode). 4 is net te min vir langer adresse.</t>
+  </si>
+  <si>
+    <t>“Create New” op die kliente lys werk nie. Gee error.</t>
+  </si>
+  <si>
+    <t>Op die “Client List” moet ons ook die status van beide die klient en die debietorder moet kan sien.</t>
+  </si>
+  <si>
+    <t>Ek neem aan die ‘Supplier Code” bo aan die ”Capture” en “Client Edit” screens is die “Reseller Code”. Kan nerens sien waar ek die benaming kan verander nie. Ons moet net dink hoe benader ons in stelsel as ‘n Reseller verder aan ‘n “Distributor” gekoppel is.  Vir bespreking.</t>
+  </si>
+  <si>
+    <t>Wanneer jy uit die client list na “Details” click, is al die velde wat in die capture vorm is nie in die lys nie. (Het in vorige emails geopper) Jy kan byvoorbeeld slegs die epos adres in die “banking screen” edit. Die details lys behoort ook die klient nommer te gee.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Wanneer ek klient 1006 se poskode edit en save, kry ek die volgende error. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB94A48"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Error. An error occurred while processing your request.</t>
+    </r>
+  </si>
+  <si>
+    <t>In die ‘Client Details” screen wys die adresse as “Addressid” vir beide. Die benamings moet wees “Postal Address” en Delivery Address”</t>
+  </si>
+  <si>
+    <t>Dink ook bo aan die “client details” skerm moet die “Client Status” ook wys.</t>
+  </si>
+  <si>
+    <t>Ek is ingelog in “Admin”. Wanneer ek uit die “User” menu die “Capture Application” click, gee hy weer die error. “Error. An error occurred while processing your request.”</t>
+  </si>
+  <si>
+    <t>Wanneer jy die subscription produk kies en “Active” maak, behoort die banking details ook “Active” te wees. Indien nie, behoort ‘n boodskap op skerm dit te wys. Of die stelsel moet default na die banking skerm as jy subskripsie produk aktief maak, en vice versa. Dink dalk boodskap is beter.</t>
+  </si>
+  <si>
+    <t>Fix access right issue</t>
+  </si>
+  <si>
+    <t>Investigate speed issue</t>
+  </si>
+  <si>
+    <t>Templates</t>
+  </si>
+  <si>
+    <t>SMS Management</t>
+  </si>
+  <si>
+    <t>Free Text SMS</t>
+  </si>
+  <si>
+    <t>SMS from Client view</t>
+  </si>
+  <si>
+    <t>Change quantity on Client subscription</t>
+  </si>
+  <si>
+    <t>Client Subscription Edit</t>
+  </si>
+  <si>
+    <t>User Management</t>
+  </si>
+  <si>
+    <t>Sort user menus</t>
+  </si>
+  <si>
+    <t>Put Client type on menu</t>
+  </si>
+  <si>
+    <t>Search on Client Type under Client</t>
+  </si>
+  <si>
+    <t>SMS T -&gt; Province</t>
+  </si>
+  <si>
+    <t>SMS Char Count</t>
+  </si>
+  <si>
+    <t>Dynamic user menu</t>
+  </si>
+  <si>
+    <t>Capture</t>
+  </si>
+  <si>
+    <t>Manage</t>
+  </si>
+  <si>
+    <t>User Search</t>
+  </si>
+  <si>
+    <t>Add another address line</t>
+  </si>
+  <si>
+    <t>Add Business name and registration number</t>
+  </si>
+  <si>
+    <t>finClientAccounts crash</t>
+  </si>
+  <si>
+    <t>Add warning if id number exists</t>
+  </si>
+  <si>
+    <t>Functional design</t>
+  </si>
+  <si>
+    <t>Database Design</t>
+  </si>
+  <si>
+    <t>Create data access models and tables</t>
+  </si>
+  <si>
+    <t>Create client form display and sales history</t>
+  </si>
+  <si>
+    <t>Create order form</t>
+  </si>
+  <si>
+    <t>Sub Task TeleSales</t>
+  </si>
+  <si>
+    <t>Shipping</t>
+  </si>
+  <si>
+    <t>Sub Task-Shipping</t>
+  </si>
+  <si>
+    <t>Form design</t>
+  </si>
+  <si>
+    <t>Link currier postal code and extra cost</t>
+  </si>
+  <si>
+    <t>Data merge and new version 26/10/2015</t>
+  </si>
+  <si>
+    <t>Data merge and new version 02/11/2015</t>
+  </si>
+  <si>
+    <t>Order Status Lookup - Populate, Create Edit Delete - add to menu items</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -478,8 +645,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFB94A48"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -489,6 +668,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,7 +838,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -679,6 +864,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -688,8 +887,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1031,7 +1228,7 @@
       </c>
       <c r="C3">
         <f ca="1">SUM('Task List'!F1:F27)</f>
-        <v>88</v>
+        <v>184.3</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1040,7 +1237,7 @@
       </c>
       <c r="C4" s="2">
         <f ca="1">SUM(C2:C3)</f>
-        <v>90</v>
+        <v>186.3</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
@@ -1054,33 +1251,33 @@
     <row r="7" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="2">
         <f ca="1">C6-C4</f>
-        <v>210</v>
+        <v>113.69999999999999</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="3">
         <f ca="1">SUM('Task List'!H:H)/Sumary!C10</f>
-        <v>70.168285599263854</v>
+        <v>132.533319163257</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10">
         <f ca="1">IF(E10&gt;F10,E10,F10)</f>
-        <v>414</v>
+        <v>459</v>
       </c>
       <c r="E10">
         <f>MAX('Task List'!B:B)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F10">
         <f ca="1">SUM('Task List'!G:G)</f>
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -1090,6 +1287,242 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="67.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2">
+        <v>0.25</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="67" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="52.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.25</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.25</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1104,10 +1537,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -1116,7 +1549,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1124,7 +1557,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1141,7 +1574,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -1156,10 +1589,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -1168,7 +1601,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1176,7 +1609,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1193,7 +1626,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1210,7 +1643,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1227,7 +1660,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1244,12 +1677,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1259,10 +1692,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -1271,7 +1704,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1279,7 +1712,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1296,13 +1729,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E3" s="4">
         <v>0.9</v>
@@ -1313,7 +1746,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1330,7 +1763,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -1345,10 +1778,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -1357,7 +1790,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1365,7 +1798,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1382,7 +1815,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1399,7 +1832,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1416,7 +1849,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1433,7 +1866,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1450,7 +1883,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1467,7 +1900,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1484,7 +1917,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1501,7 +1934,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -1516,10 +1949,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -1528,7 +1961,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1536,7 +1969,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1553,7 +1986,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1570,7 +2003,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1587,7 +2020,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1604,7 +2037,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1621,7 +2054,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1638,7 +2071,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1655,7 +2088,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1672,7 +2105,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1689,7 +2122,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1706,7 +2139,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1723,7 +2156,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1740,7 +2173,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1757,7 +2190,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -1771,7 +2204,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -1786,10 +2219,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -1798,7 +2231,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1806,7 +2239,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1823,7 +2256,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1840,7 +2273,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1857,7 +2290,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1874,7 +2307,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1891,12 +2324,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1906,10 +2339,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -1918,7 +2351,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1926,7 +2359,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1943,13 +2376,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
@@ -1960,13 +2393,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E4" s="4">
         <v>0.5</v>
@@ -1977,16 +2410,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1994,7 +2427,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -2011,16 +2444,33 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="4">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2032,8 +2482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O47"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2060,14 +2510,14 @@
         <v>3</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N2" s="20"/>
       <c r="O2" s="20"/>
@@ -2098,7 +2548,7 @@
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
@@ -2108,7 +2558,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5">
@@ -2129,7 +2579,7 @@
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
@@ -2160,7 +2610,7 @@
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N5" s="20"/>
       <c r="O5" s="20"/>
@@ -2186,12 +2636,11 @@
         <v>14</v>
       </c>
       <c r="H6" s="7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.5535714285714286</v>
+        <v>1</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N6" s="20"/>
       <c r="O6" s="20"/>
@@ -2217,12 +2666,11 @@
         <v>5</v>
       </c>
       <c r="H7" s="7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N7" s="20"/>
       <c r="O7" s="20"/>
@@ -2248,12 +2696,11 @@
         <v>8</v>
       </c>
       <c r="H8" s="7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.72499999999999998</v>
+        <v>1</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N8" s="20"/>
       <c r="O8" s="20"/>
@@ -2276,15 +2723,14 @@
       </c>
       <c r="G9" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H9" s="7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.72499999999999998</v>
+        <v>1</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N9" s="20"/>
       <c r="O9" s="20"/>
@@ -2303,7 +2749,7 @@
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" ca="1" si="3"/>
@@ -2315,7 +2761,7 @@
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N10" s="20"/>
       <c r="O10" s="20"/>
@@ -2346,7 +2792,7 @@
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N11" s="20"/>
       <c r="O11" s="20"/>
@@ -2356,7 +2802,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5">
@@ -2365,28 +2811,28 @@
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5</v>
+        <v>12</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H12" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.9</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N12" s="20"/>
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="14">
+      <c r="B13" s="28">
         <v>11</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="5"/>
@@ -2396,19 +2842,19 @@
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H13" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>0.56666666666666676</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="15" t="s">
-        <v>38</v>
+        <v>176</v>
       </c>
       <c r="N13" s="20"/>
       <c r="O13" s="20"/>
@@ -2427,19 +2873,18 @@
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5</v>
+        <v>31.5</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H14" s="7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N14" s="20"/>
       <c r="O14" s="20"/>
@@ -2449,7 +2894,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5">
@@ -2458,19 +2903,18 @@
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H15" s="7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N15" s="20"/>
       <c r="O15" s="20"/>
@@ -2501,17 +2945,17 @@
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N16" s="20"/>
       <c r="O16" s="20"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="14">
+      <c r="B17" s="28">
         <v>15</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>19</v>
+      <c r="C17" s="8" t="s">
+        <v>177</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5">
@@ -2524,7 +2968,7 @@
       </c>
       <c r="G17" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H17" s="7">
         <f t="shared" ca="1" si="2"/>
@@ -2532,7 +2976,7 @@
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="15" t="s">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="N17" s="20"/>
       <c r="O17" s="20"/>
@@ -2542,7 +2986,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5">
@@ -2563,7 +3007,7 @@
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N18" s="20"/>
       <c r="O18" s="20"/>
@@ -2573,7 +3017,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5">
@@ -2594,7 +3038,7 @@
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N19" s="20"/>
       <c r="O19" s="20"/>
@@ -2604,7 +3048,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5">
@@ -2612,30 +3056,28 @@
         <v>0</v>
       </c>
       <c r="F20" s="5">
-        <f t="shared" ref="F20:F21" ca="1" si="5">SUM(INDIRECT(CONCATENATE("'",J20,"'", "!D:D")))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G20" s="5">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="H20" s="7">
-        <f t="shared" ref="H20" ca="1" si="6">SUM(INDIRECT(CONCATENATE("'",J20,"'", "!E:E"))) /G20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N20" s="20"/>
       <c r="O20" s="20"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="14">
+      <c r="B21" s="28">
         <v>19</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5">
@@ -2643,34 +3085,50 @@
         <v>0</v>
       </c>
       <c r="F21" s="5">
-        <f t="shared" ca="1" si="5"/>
-        <v>29.5</v>
+        <f t="shared" ref="F21:F22" ca="1" si="5">SUM(INDIRECT(CONCATENATE("'",J21,"'", "!D:D")))</f>
+        <v>52.3</v>
       </c>
       <c r="G21" s="5">
-        <f t="shared" ref="G21" ca="1" si="7">MAX(INDIRECT(CONCATENATE("'",J21,"'", "!A:A")))</f>
-        <v>17</v>
+        <f t="shared" ref="G21:G22" ca="1" si="6">MAX(INDIRECT(CONCATENATE("'",J21,"'", "!A:A")))</f>
+        <v>41</v>
       </c>
       <c r="H21" s="7">
-        <f t="shared" ref="H21" ca="1" si="8">SUM(INDIRECT(CONCATENATE("'",J21,"'", "!E:E"))) /G21</f>
-        <v>1</v>
+        <f t="shared" ref="H21" ca="1" si="7">SUM(INDIRECT(CONCATENATE("'",J21,"'", "!E:E"))) /G21</f>
+        <v>0.92682926829268297</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N21" s="20"/>
       <c r="O21" s="20"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="14"/>
-      <c r="C22" s="5"/>
+      <c r="B22" s="14">
+        <v>20</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>134</v>
+      </c>
       <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="G22" s="5">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="H22" s="23">
+        <v>1</v>
+      </c>
       <c r="I22" s="5"/>
-      <c r="J22" s="15"/>
+      <c r="J22" s="15" t="s">
+        <v>135</v>
+      </c>
       <c r="N22" s="20"/>
       <c r="O22" s="20"/>
     </row>
@@ -2742,15 +3200,15 @@
     <row r="28" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F28">
         <f ca="1">SUM(F3:F27)</f>
-        <v>88</v>
+        <v>184.3</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D29" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
+      <c r="D29" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
       <c r="G29" s="11" t="s">
         <v>2</v>
       </c>
@@ -2758,18 +3216,18 @@
         <v>3</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C30" s="1"/>
       <c r="D30" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="F30" s="21"/>
+        <v>97</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="29"/>
       <c r="G30" s="5"/>
       <c r="H30" s="15"/>
     </row>
@@ -2806,7 +3264,7 @@
       </c>
       <c r="F32" s="5">
         <f ca="1">SUM(F3:F27) -F31</f>
-        <v>14</v>
+        <v>110.30000000000001</v>
       </c>
       <c r="G32" s="5">
         <f ca="1">E32*L32</f>
@@ -2814,7 +3272,7 @@
       </c>
       <c r="H32" s="15">
         <f ca="1">F32*L32</f>
-        <v>4620</v>
+        <v>36399.000000000007</v>
       </c>
       <c r="L32">
         <v>330</v>
@@ -2968,6 +3426,9 @@
     <hyperlink ref="C14" location="'Sub Task-SMS'!A1" display="SMS - Not linked to anything        "/>
     <hyperlink ref="C12" location="'Sub Task-Queries'!A1" display="Queries        (Support Tickets)"/>
     <hyperlink ref="C21" location="Agile!A1" display="Agile changes / fixes"/>
+    <hyperlink ref="C13" location="'Sub Task TeleSales'!A1" display="Telesales        "/>
+    <hyperlink ref="C17" location="'Sub Task-Shipping'!A1" display="Shipping"/>
+    <hyperlink ref="C22" location="'Sub Implementation Integration'!A1" display="Implementation And Integration"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2976,24 +3437,339 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="93.42578125" customWidth="1"/>
+    <col min="2" max="2" width="63" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="82.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2">
+        <v>0.5</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7">
+        <v>1.5</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="57.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P58"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:B58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="134.7109375" customWidth="1"/>
     <col min="6" max="6" width="45.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -3002,10 +3778,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -3013,7 +3789,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -3030,7 +3806,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3047,7 +3823,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3059,130 +3835,130 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E5" s="4"/>
       <c r="F5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E6" s="4"/>
       <c r="F6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" s="4"/>
       <c r="F7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E8" s="4"/>
       <c r="F8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E9" s="4"/>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E10" s="4"/>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E11" s="4"/>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E12" s="4"/>
       <c r="F12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E13" s="4"/>
       <c r="F13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" t="s">
         <v>115</v>
-      </c>
-      <c r="G13" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E14" s="4"/>
       <c r="F14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E15" s="4"/>
       <c r="F15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E16" s="4"/>
       <c r="F16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" t="s">
         <v>117</v>
-      </c>
-      <c r="G16" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E17" s="4"/>
       <c r="F17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E18" s="4"/>
       <c r="F18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -3190,7 +3966,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -3207,7 +3983,7 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -3224,7 +4000,7 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -3237,31 +4013,31 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -3278,7 +4054,7 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -3295,7 +4071,7 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -3312,7 +4088,7 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -3329,7 +4105,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -3346,7 +4122,7 @@
         <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -3363,7 +4139,7 @@
         <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -3380,7 +4156,7 @@
         <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -3394,7 +4170,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
@@ -3402,7 +4178,7 @@
         <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -3419,7 +4195,7 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -3436,7 +4212,7 @@
         <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -3446,6 +4222,414 @@
       </c>
       <c r="E34" s="4">
         <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>18</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>19</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0.3</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>20</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0.3</v>
+      </c>
+      <c r="E37" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>21</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0.5</v>
+      </c>
+      <c r="E38" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>22</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0.3</v>
+      </c>
+      <c r="E39" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>23</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0.5</v>
+      </c>
+      <c r="E40" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>24</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>25</v>
+      </c>
+      <c r="B42" t="s">
+        <v>145</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0.3</v>
+      </c>
+      <c r="E42" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>26</v>
+      </c>
+      <c r="B43" t="s">
+        <v>146</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0.3</v>
+      </c>
+      <c r="E43" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>27</v>
+      </c>
+      <c r="B44" t="s">
+        <v>147</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0.3</v>
+      </c>
+      <c r="E44" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>28</v>
+      </c>
+      <c r="B45" t="s">
+        <v>148</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>1.5</v>
+      </c>
+      <c r="E45" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>29</v>
+      </c>
+      <c r="B46" t="s">
+        <v>149</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0.5</v>
+      </c>
+      <c r="E46" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>30</v>
+      </c>
+      <c r="B47" t="s">
+        <v>150</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>31</v>
+      </c>
+      <c r="B48" t="s">
+        <v>156</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="27">
+        <v>32</v>
+      </c>
+      <c r="B49" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C49" s="27">
+        <v>0</v>
+      </c>
+      <c r="D49" s="27">
+        <v>8</v>
+      </c>
+      <c r="E49" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="27">
+        <v>33</v>
+      </c>
+      <c r="B50" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="C50" s="27">
+        <v>0</v>
+      </c>
+      <c r="D50" s="27">
+        <v>1</v>
+      </c>
+      <c r="E50" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="27">
+        <v>34</v>
+      </c>
+      <c r="B51" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="C51" s="27">
+        <v>0</v>
+      </c>
+      <c r="D51" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="E51" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="27">
+        <v>35</v>
+      </c>
+      <c r="B52" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="C52" s="27">
+        <v>0</v>
+      </c>
+      <c r="D52" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="E52" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="27">
+        <v>36</v>
+      </c>
+      <c r="B53" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="C53" s="27">
+        <v>0</v>
+      </c>
+      <c r="D53" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="E53" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="27">
+        <v>37</v>
+      </c>
+      <c r="B54" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C54" s="27">
+        <v>0</v>
+      </c>
+      <c r="D54" s="27">
+        <v>1</v>
+      </c>
+      <c r="E54" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="27">
+        <v>38</v>
+      </c>
+      <c r="B55" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="C55" s="27">
+        <v>0</v>
+      </c>
+      <c r="D55" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="E55" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="27">
+        <v>39</v>
+      </c>
+      <c r="B56" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="C56" s="27">
+        <v>0</v>
+      </c>
+      <c r="D56" s="27">
+        <v>0</v>
+      </c>
+      <c r="E56" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="27">
+        <v>40</v>
+      </c>
+      <c r="B57" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="C57" s="27">
+        <v>0</v>
+      </c>
+      <c r="D57" s="27">
+        <v>0</v>
+      </c>
+      <c r="E57" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="27">
+        <v>41</v>
+      </c>
+      <c r="B58" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="C58" s="27">
+        <v>0</v>
+      </c>
+      <c r="D58" s="27">
+        <v>0</v>
+      </c>
+      <c r="E58" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3454,12 +4638,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E3"/>
+      <selection activeCell="J12" sqref="J12:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3469,10 +4653,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -3481,7 +4665,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -3489,7 +4673,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -3506,7 +4690,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3516,6 +4700,74 @@
       </c>
       <c r="E3" s="4">
         <v>0.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>2.5</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -3523,12 +4775,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3538,10 +4790,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -3550,7 +4802,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -3558,7 +4810,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -3575,7 +4827,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3585,6 +4837,74 @@
       </c>
       <c r="E3" s="4">
         <v>0.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>17</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3592,12 +4912,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3607,10 +4927,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -3619,7 +4939,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -3627,7 +4947,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -3644,7 +4964,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3661,7 +4981,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3678,7 +4998,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3695,7 +5015,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -3712,7 +5032,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -3729,7 +5049,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -3746,7 +5066,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -3758,242 +5078,21 @@
         <v>1</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="67.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2">
-        <v>0.25</v>
-      </c>
-      <c r="E2" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="67" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3">
-        <v>6</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="52.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0.25</v>
-      </c>
-      <c r="E2" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0.25</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.9</v>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
